--- a/Fiesta/Plan_Fiesta.xlsx
+++ b/Fiesta/Plan_Fiesta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Asignado</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Paquete de vasos</t>
+  </si>
+  <si>
+    <t>ya lo hice</t>
   </si>
 </sst>
 </file>
@@ -73,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -101,6 +110,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,19 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -439,18 +452,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -461,7 +477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -472,7 +488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>

--- a/Fiesta/Plan_Fiesta.xlsx
+++ b/Fiesta/Plan_Fiesta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Asignado</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>ya lo hice</t>
+  </si>
+  <si>
+    <t>Tlapa</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,10 +424,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
@@ -468,10 +471,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>

--- a/Fiesta/Plan_Fiesta.xlsx
+++ b/Fiesta/Plan_Fiesta.xlsx
@@ -55,7 +55,7 @@
     <t>ya lo hice</t>
   </si>
   <si>
-    <t>Tlapa</t>
+    <t>Rodrigo Tlapa</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>

--- a/Fiesta/Plan_Fiesta.xlsx
+++ b/Fiesta/Plan_Fiesta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Asignado</t>
   </si>
@@ -56,12 +56,15 @@
   </si>
   <si>
     <t>Rodrigo Tlapa</t>
+  </si>
+  <si>
+    <t>Churros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +505,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
